--- a/Game_Engine/Shared/Resources/tables/Sprites.xlsx
+++ b/Game_Engine/Shared/Resources/tables/Sprites.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphaelgournay/Documents/GitHub/Physics-Engine/Physics_Engine/Shared/Resources/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphaelgournay/Documents/GitHub/Physics-Engine/Game_Engine/Shared/Resources/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -96,6 +96,33 @@
   </si>
   <si>
     <t>block</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>sprites/player/p1</t>
+  </si>
+  <si>
+    <t>sprites/enemy/e1</t>
+  </si>
+  <si>
+    <t>sprites/enemy/e2</t>
+  </si>
+  <si>
+    <t>blocks/b1</t>
+  </si>
+  <si>
+    <t>blocks/b2</t>
+  </si>
+  <si>
+    <t>blocks/s1</t>
+  </si>
+  <si>
+    <t>blocks/s2</t>
+  </si>
+  <si>
+    <t>blocks/r1</t>
   </si>
 </sst>
 </file>
@@ -410,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -563,6 +590,35 @@
         <v>2</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Game_Engine/Shared/Resources/tables/Sprites.xlsx
+++ b/Game_Engine/Shared/Resources/tables/Sprites.xlsx
@@ -437,185 +437,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
+      <c r="C4" t="b">
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
+      <c r="E6">
+        <v>2</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="H6" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="I6" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Game_Engine/Shared/Resources/tables/Sprites.xlsx
+++ b/Game_Engine/Shared/Resources/tables/Sprites.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>blocks/r1</t>
+  </si>
+  <si>
+    <t>yShift</t>
+  </si>
+  <si>
+    <t>sprite height</t>
   </si>
 </sst>
 </file>
@@ -437,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -464,8 +470,14 @@
       <c r="F1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -484,8 +496,15 @@
       <c r="F2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <f>1/100</f>
+        <v>0.01</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -504,8 +523,14 @@
       <c r="F3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -524,8 +549,14 @@
       <c r="F4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -544,8 +575,14 @@
       <c r="F5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -564,8 +601,14 @@
       <c r="F6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -584,8 +627,14 @@
       <c r="F7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -604,8 +653,14 @@
       <c r="F8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -623,6 +678,12 @@
       </c>
       <c r="F9" t="s">
         <v>31</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Game_Engine/Shared/Resources/tables/Sprites.xlsx
+++ b/Game_Engine/Shared/Resources/tables/Sprites.xlsx
@@ -446,7 +446,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -596,7 +596,7 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -648,7 +648,7 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
         <v>30</v>

--- a/Game_Engine/Shared/Resources/tables/Sprites.xlsx
+++ b/Game_Engine/Shared/Resources/tables/Sprites.xlsx
@@ -446,7 +446,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -596,7 +596,7 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -648,7 +648,7 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
         <v>30</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">

--- a/Game_Engine/Shared/Resources/tables/Sprites.xlsx
+++ b/Game_Engine/Shared/Resources/tables/Sprites.xlsx
@@ -164,8 +164,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,7 +447,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -496,9 +497,8 @@
       <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="G2">
-        <f>1/100</f>
-        <v>0.01</v>
+      <c r="G2" s="1">
+        <v>0.2</v>
       </c>
       <c r="H2">
         <v>15</v>

--- a/Game_Engine/Shared/Resources/tables/Sprites.xlsx
+++ b/Game_Engine/Shared/Resources/tables/Sprites.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$9</definedName>
+  </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -129,16 +132,55 @@
   </si>
   <si>
     <t>sprite height</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>rock2</t>
+  </si>
+  <si>
+    <t>blocks/r2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -161,14 +203,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -444,42 +495,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -505,7 +556,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -531,7 +582,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
@@ -557,7 +608,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
@@ -583,7 +634,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
@@ -609,7 +660,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
@@ -635,7 +686,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
@@ -661,7 +712,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
@@ -683,10 +734,38 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>